--- a/SuppXLS/Scen_NCAP_PP_LO_UP_RANGE_N.xlsx
+++ b/SuppXLS/Scen_NCAP_PP_LO_UP_RANGE_N.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jemio\Downloads\do_gita\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCD01255-E5A5-4DBB-9310-6D0062B31579}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F40D4E60-980F-471C-9F33-31A906DD67E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="242" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="94">
   <si>
     <t>~TFM_INS</t>
   </si>
@@ -328,6 +328,27 @@
   </si>
   <si>
     <t>Value in Region [km]</t>
+  </si>
+  <si>
+    <t>ELE_NEW_GAS_CCGT</t>
+  </si>
+  <si>
+    <t>ELE_NEW_BIOM</t>
+  </si>
+  <si>
+    <t>ELE_NEW_WIND_ON</t>
+  </si>
+  <si>
+    <t>ELE_NEW_WIND_OFF</t>
+  </si>
+  <si>
+    <t>ELE_NEW_HYDRO</t>
+  </si>
+  <si>
+    <t>ELE_NEW_PV</t>
+  </si>
+  <si>
+    <t>ELE_NEW_NUC</t>
   </si>
 </sst>
 </file>
@@ -3228,36 +3249,6 @@
     <xf numFmtId="0" fontId="105" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="43" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="43" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="43" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="43" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="43" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="43" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="104" fillId="43" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="104" fillId="43" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="104" fillId="43" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="102" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="102" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3275,6 +3266,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="43" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="43" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="43" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="43" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="43" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="43" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="43" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="43" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="43" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1261">
@@ -4569,36 +4590,6 @@
             <v>NEW_GAS_CCGT</v>
           </cell>
         </row>
-        <row r="9">
-          <cell r="B9" t="str">
-            <v>NEW_BIOM</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10" t="str">
-            <v>NEW_WIND_ON</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11" t="str">
-            <v>NEW_WIND_OFF</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12" t="str">
-            <v>NEW_HYDRO</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13" t="str">
-            <v>NEW_PV</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14" t="str">
-            <v>NEW_NUC</v>
-          </cell>
-        </row>
         <row r="15">
           <cell r="B15" t="str">
             <v>NEW_ELEC_H2</v>
@@ -4938,7 +4929,7 @@
   <dimension ref="B3:AA66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="64" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -4980,18 +4971,18 @@
       <c r="K3" s="3"/>
       <c r="L3" s="19"/>
       <c r="M3" s="3"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="35"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="36"/>
-      <c r="X3" s="36"/>
-      <c r="Y3" s="37"/>
-      <c r="Z3" s="36"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="26"/>
     </row>
     <row r="4" spans="2:26" ht="13.5" thickBot="1">
       <c r="B4" s="1" t="s">
@@ -5024,36 +5015,36 @@
       <c r="M4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="35"/>
-      <c r="P4" s="38" t="s">
+      <c r="O4" s="25"/>
+      <c r="P4" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="Q4" s="38" t="s">
+      <c r="Q4" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="R4" s="38" t="s">
+      <c r="R4" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="S4" s="38" t="s">
+      <c r="S4" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="T4" s="38" t="s">
+      <c r="T4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="U4" s="35"/>
-      <c r="V4" s="38" t="s">
+      <c r="U4" s="25"/>
+      <c r="V4" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="W4" s="38" t="s">
+      <c r="W4" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="X4" s="38" t="s">
+      <c r="X4" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="Y4" s="38" t="s">
+      <c r="Y4" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="Z4" s="38" t="s">
+      <c r="Z4" s="28" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5088,36 +5079,36 @@
       <c r="M5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O5" s="35"/>
-      <c r="P5" s="39" t="s">
+      <c r="O5" s="25"/>
+      <c r="P5" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="Q5" s="39" t="s">
+      <c r="Q5" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="R5" s="39" t="s">
+      <c r="R5" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="S5" s="39" t="s">
+      <c r="S5" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="T5" s="39" t="s">
+      <c r="T5" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="U5" s="35"/>
-      <c r="V5" s="39" t="s">
+      <c r="U5" s="25"/>
+      <c r="V5" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="W5" s="39" t="s">
+      <c r="W5" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="X5" s="39" t="s">
+      <c r="X5" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="Y5" s="39" t="s">
+      <c r="Y5" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="Z5" s="39" t="s">
+      <c r="Z5" s="29" t="s">
         <v>9</v>
       </c>
     </row>
@@ -5132,9 +5123,8 @@
         <v>2030</v>
       </c>
       <c r="E6" s="23"/>
-      <c r="F6" s="5" t="str">
-        <f>[1]ELC!$B$8</f>
-        <v>NEW_GAS_CCGT</v>
+      <c r="F6" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>12</v>
@@ -5147,40 +5137,40 @@
       </c>
       <c r="L6" s="23"/>
       <c r="M6" s="5" t="str">
-        <f>[1]ELC!$B$8</f>
-        <v>NEW_GAS_CCGT</v>
-      </c>
-      <c r="O6" s="35"/>
-      <c r="P6" s="40" t="s">
+        <f>F6</f>
+        <v>ELE_NEW_GAS_CCGT</v>
+      </c>
+      <c r="O6" s="25"/>
+      <c r="P6" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="Q6" s="40" t="s">
+      <c r="Q6" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="R6" s="40">
+      <c r="R6" s="30">
         <v>2030</v>
       </c>
-      <c r="S6" s="41">
+      <c r="S6" s="31">
         <v>100</v>
       </c>
-      <c r="T6" s="40" t="str">
+      <c r="T6" s="30" t="str">
         <f>[1]ELC!$B$30</f>
         <v>NEW_H2_GRID</v>
       </c>
-      <c r="U6" s="35"/>
-      <c r="V6" s="40" t="s">
+      <c r="U6" s="25"/>
+      <c r="V6" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="W6" s="40" t="s">
+      <c r="W6" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="X6" s="40">
+      <c r="X6" s="30">
         <v>2030</v>
       </c>
-      <c r="Y6" s="41">
+      <c r="Y6" s="31">
         <v>400</v>
       </c>
-      <c r="Z6" s="40" t="str">
+      <c r="Z6" s="30" t="str">
         <f>[1]ELC!$B$30</f>
         <v>NEW_H2_GRID</v>
       </c>
@@ -5196,9 +5186,8 @@
         <v>2040</v>
       </c>
       <c r="E7" s="23"/>
-      <c r="F7" s="5" t="str">
-        <f>[1]ELC!$B$8</f>
-        <v>NEW_GAS_CCGT</v>
+      <c r="F7" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>12</v>
@@ -5211,42 +5200,42 @@
       </c>
       <c r="L7" s="23"/>
       <c r="M7" s="5" t="str">
-        <f>[1]ELC!$B$8</f>
-        <v>NEW_GAS_CCGT</v>
-      </c>
-      <c r="O7" s="35"/>
-      <c r="P7" s="40" t="s">
+        <f t="shared" ref="M7:M8" si="0">F7</f>
+        <v>ELE_NEW_GAS_CCGT</v>
+      </c>
+      <c r="O7" s="25"/>
+      <c r="P7" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="Q7" s="40" t="s">
+      <c r="Q7" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="R7" s="40">
+      <c r="R7" s="30">
         <v>2040</v>
       </c>
-      <c r="S7" s="42">
+      <c r="S7" s="32">
         <f>400</f>
         <v>400</v>
       </c>
-      <c r="T7" s="40" t="str">
+      <c r="T7" s="30" t="str">
         <f>[1]ELC!$B$30</f>
         <v>NEW_H2_GRID</v>
       </c>
-      <c r="U7" s="35"/>
-      <c r="V7" s="40" t="s">
+      <c r="U7" s="25"/>
+      <c r="V7" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="W7" s="40" t="s">
+      <c r="W7" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="X7" s="40">
+      <c r="X7" s="30">
         <v>2040</v>
       </c>
-      <c r="Y7" s="42">
+      <c r="Y7" s="32">
         <f>2*Y6</f>
         <v>800</v>
       </c>
-      <c r="Z7" s="40" t="str">
+      <c r="Z7" s="30" t="str">
         <f>[1]ELC!$B$30</f>
         <v>NEW_H2_GRID</v>
       </c>
@@ -5262,9 +5251,8 @@
         <v>2050</v>
       </c>
       <c r="E8" s="23"/>
-      <c r="F8" s="5" t="str">
-        <f>[1]ELC!$B$8</f>
-        <v>NEW_GAS_CCGT</v>
+      <c r="F8" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>12</v>
@@ -5277,40 +5265,40 @@
       </c>
       <c r="L8" s="23"/>
       <c r="M8" s="5" t="str">
-        <f>[1]ELC!$B$8</f>
-        <v>NEW_GAS_CCGT</v>
-      </c>
-      <c r="O8" s="35"/>
-      <c r="P8" s="40" t="s">
+        <f t="shared" si="0"/>
+        <v>ELE_NEW_GAS_CCGT</v>
+      </c>
+      <c r="O8" s="25"/>
+      <c r="P8" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="Q8" s="40" t="s">
+      <c r="Q8" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="R8" s="40">
+      <c r="R8" s="30">
         <v>2050</v>
       </c>
-      <c r="S8" s="42">
+      <c r="S8" s="32">
         <v>800</v>
       </c>
-      <c r="T8" s="40" t="str">
+      <c r="T8" s="30" t="str">
         <f>[1]ELC!$B$30</f>
         <v>NEW_H2_GRID</v>
       </c>
-      <c r="U8" s="35"/>
-      <c r="V8" s="40" t="s">
+      <c r="U8" s="25"/>
+      <c r="V8" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="W8" s="40" t="s">
+      <c r="W8" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="X8" s="40">
+      <c r="X8" s="30">
         <v>2050</v>
       </c>
-      <c r="Y8" s="42">
+      <c r="Y8" s="32">
         <v>1200</v>
       </c>
-      <c r="Z8" s="40" t="str">
+      <c r="Z8" s="30" t="str">
         <f>[1]ELC!$B$30</f>
         <v>NEW_H2_GRID</v>
       </c>
@@ -5326,9 +5314,8 @@
         <v>2030</v>
       </c>
       <c r="E9" s="24"/>
-      <c r="F9" s="7" t="str">
-        <f>[1]ELC!$B$9</f>
-        <v>NEW_BIOM</v>
+      <c r="F9" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>12</v>
@@ -5341,42 +5328,42 @@
       </c>
       <c r="L9" s="24"/>
       <c r="M9" s="7" t="str">
-        <f>[1]ELC!$B$9</f>
-        <v>NEW_BIOM</v>
-      </c>
-      <c r="O9" s="35"/>
-      <c r="P9" s="40" t="s">
+        <f>F9</f>
+        <v>ELE_NEW_BIOM</v>
+      </c>
+      <c r="O9" s="25"/>
+      <c r="P9" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="Q9" s="40" t="s">
+      <c r="Q9" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="R9" s="40">
+      <c r="R9" s="30">
         <v>2030</v>
       </c>
-      <c r="S9" s="42">
+      <c r="S9" s="32">
         <f>0.4*Y9</f>
         <v>1238599.9999999998</v>
       </c>
-      <c r="T9" s="35" t="str">
+      <c r="T9" s="25" t="str">
         <f>[1]ELC!$B$31</f>
         <v>NEW_H2_TRUCKS</v>
       </c>
-      <c r="U9" s="35"/>
-      <c r="V9" s="40" t="s">
+      <c r="U9" s="25"/>
+      <c r="V9" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="W9" s="40" t="s">
+      <c r="W9" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="X9" s="40">
+      <c r="X9" s="30">
         <v>2030</v>
       </c>
-      <c r="Y9" s="42">
+      <c r="Y9" s="32">
         <f>[1]ELC!$AX$35</f>
         <v>3096499.9999999995</v>
       </c>
-      <c r="Z9" s="35" t="str">
+      <c r="Z9" s="25" t="str">
         <f>T9</f>
         <v>NEW_H2_TRUCKS</v>
       </c>
@@ -5392,9 +5379,8 @@
         <v>2040</v>
       </c>
       <c r="E10" s="24"/>
-      <c r="F10" s="7" t="str">
-        <f>[1]ELC!$B$9</f>
-        <v>NEW_BIOM</v>
+      <c r="F10" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>12</v>
@@ -5407,43 +5393,43 @@
       </c>
       <c r="L10" s="24"/>
       <c r="M10" s="7" t="str">
-        <f>[1]ELC!$B$9</f>
-        <v>NEW_BIOM</v>
-      </c>
-      <c r="O10" s="35"/>
-      <c r="P10" s="40" t="s">
+        <f t="shared" ref="M10:M11" si="1">F10</f>
+        <v>ELE_NEW_BIOM</v>
+      </c>
+      <c r="O10" s="25"/>
+      <c r="P10" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="Q10" s="40" t="s">
+      <c r="Q10" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="R10" s="40">
+      <c r="R10" s="30">
         <v>2040</v>
       </c>
-      <c r="S10" s="42">
-        <f t="shared" ref="S10:S11" si="0">0.4*Y10</f>
+      <c r="S10" s="32">
+        <f t="shared" ref="S10:S11" si="2">0.4*Y10</f>
         <v>23772020.960029036</v>
       </c>
-      <c r="T10" s="35" t="str">
+      <c r="T10" s="25" t="str">
         <f>[1]ELC!$B$31</f>
         <v>NEW_H2_TRUCKS</v>
       </c>
-      <c r="U10" s="35"/>
-      <c r="V10" s="40" t="s">
+      <c r="U10" s="25"/>
+      <c r="V10" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="W10" s="40" t="s">
+      <c r="W10" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="X10" s="40">
+      <c r="X10" s="30">
         <v>2040</v>
       </c>
-      <c r="Y10" s="42">
+      <c r="Y10" s="32">
         <f>[1]ELC!$AZ$35</f>
         <v>59430052.40007259</v>
       </c>
-      <c r="Z10" s="35" t="str">
-        <f t="shared" ref="Z10:Z11" si="1">T10</f>
+      <c r="Z10" s="25" t="str">
+        <f t="shared" ref="Z10:Z11" si="3">T10</f>
         <v>NEW_H2_TRUCKS</v>
       </c>
     </row>
@@ -5458,9 +5444,8 @@
         <v>2050</v>
       </c>
       <c r="E11" s="24"/>
-      <c r="F11" s="7" t="str">
-        <f>[1]ELC!$B$9</f>
-        <v>NEW_BIOM</v>
+      <c r="F11" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>12</v>
@@ -5473,43 +5458,43 @@
       </c>
       <c r="L11" s="24"/>
       <c r="M11" s="7" t="str">
-        <f>[1]ELC!$B$9</f>
-        <v>NEW_BIOM</v>
-      </c>
-      <c r="O11" s="35"/>
-      <c r="P11" s="40" t="s">
+        <f t="shared" si="1"/>
+        <v>ELE_NEW_BIOM</v>
+      </c>
+      <c r="O11" s="25"/>
+      <c r="P11" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="Q11" s="40" t="s">
+      <c r="Q11" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="R11" s="40">
+      <c r="R11" s="30">
         <v>2050</v>
       </c>
-      <c r="S11" s="42">
-        <f t="shared" si="0"/>
+      <c r="S11" s="32">
+        <f t="shared" si="2"/>
         <v>56508121.420058072</v>
       </c>
-      <c r="T11" s="35" t="str">
+      <c r="T11" s="25" t="str">
         <f>[1]ELC!$B$31</f>
         <v>NEW_H2_TRUCKS</v>
       </c>
-      <c r="U11" s="35"/>
-      <c r="V11" s="40" t="s">
+      <c r="U11" s="25"/>
+      <c r="V11" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="W11" s="40" t="s">
+      <c r="W11" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="X11" s="40">
+      <c r="X11" s="30">
         <v>2050</v>
       </c>
-      <c r="Y11" s="42">
+      <c r="Y11" s="32">
         <f>[1]ELC!$BB$35</f>
         <v>141270303.55014518</v>
       </c>
-      <c r="Z11" s="35" t="str">
-        <f t="shared" si="1"/>
+      <c r="Z11" s="25" t="str">
+        <f t="shared" si="3"/>
         <v>NEW_H2_TRUCKS</v>
       </c>
     </row>
@@ -5526,9 +5511,8 @@
       <c r="E12" s="21">
         <v>19</v>
       </c>
-      <c r="F12" s="6" t="str">
-        <f>[1]ELC!$B$10</f>
-        <v>NEW_WIND_ON</v>
+      <c r="F12" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>12</v>
@@ -5543,21 +5527,21 @@
         <v>10.805999999999999</v>
       </c>
       <c r="M12" s="6" t="str">
-        <f>[1]ELC!$B$10</f>
-        <v>NEW_WIND_ON</v>
-      </c>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="35"/>
-      <c r="R12" s="35"/>
-      <c r="S12" s="42"/>
-      <c r="T12" s="35"/>
-      <c r="U12" s="35"/>
-      <c r="V12" s="35"/>
-      <c r="W12" s="35"/>
-      <c r="X12" s="35"/>
-      <c r="Y12" s="42"/>
-      <c r="Z12" s="35"/>
+        <f>F12</f>
+        <v>ELE_NEW_WIND_ON</v>
+      </c>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+      <c r="S12" s="32"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="25"/>
+      <c r="W12" s="25"/>
+      <c r="X12" s="25"/>
+      <c r="Y12" s="32"/>
+      <c r="Z12" s="25"/>
     </row>
     <row r="13" spans="2:26" ht="18.75" customHeight="1">
       <c r="B13" s="5" t="s">
@@ -5572,9 +5556,8 @@
       <c r="E13" s="21">
         <v>40</v>
       </c>
-      <c r="F13" s="6" t="str">
-        <f>[1]ELC!$B$10</f>
-        <v>NEW_WIND_ON</v>
+      <c r="F13" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>12</v>
@@ -5589,8 +5572,8 @@
         <v>10.805999999999999</v>
       </c>
       <c r="M13" s="6" t="str">
-        <f>[1]ELC!$B$10</f>
-        <v>NEW_WIND_ON</v>
+        <f t="shared" ref="M13:M14" si="4">F13</f>
+        <v>ELE_NEW_WIND_ON</v>
       </c>
     </row>
     <row r="14" spans="2:26" ht="18.75" customHeight="1">
@@ -5606,9 +5589,8 @@
       <c r="E14" s="21">
         <v>62</v>
       </c>
-      <c r="F14" s="6" t="str">
-        <f>[1]ELC!$B$10</f>
-        <v>NEW_WIND_ON</v>
+      <c r="F14" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>12</v>
@@ -5623,8 +5605,8 @@
         <v>10.805999999999999</v>
       </c>
       <c r="M14" s="6" t="str">
-        <f>[1]ELC!$B$10</f>
-        <v>NEW_WIND_ON</v>
+        <f t="shared" si="4"/>
+        <v>ELE_NEW_WIND_ON</v>
       </c>
     </row>
     <row r="15" spans="2:26" ht="18.75" customHeight="1">
@@ -5640,9 +5622,8 @@
       <c r="E15" s="20">
         <v>10.9</v>
       </c>
-      <c r="F15" s="7" t="str">
-        <f>[1]ELC!$B$11</f>
-        <v>NEW_WIND_OFF</v>
+      <c r="F15" s="7" t="s">
+        <v>90</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>12</v>
@@ -5657,8 +5638,8 @@
         <v>10.4</v>
       </c>
       <c r="M15" s="7" t="str">
-        <f>[1]ELC!$B$11</f>
-        <v>NEW_WIND_OFF</v>
+        <f>F15</f>
+        <v>ELE_NEW_WIND_OFF</v>
       </c>
       <c r="P15" s="18" t="s">
         <v>83</v>
@@ -5677,9 +5658,8 @@
       <c r="E16" s="20">
         <v>21.8</v>
       </c>
-      <c r="F16" s="7" t="str">
-        <f>[1]ELC!$B$11</f>
-        <v>NEW_WIND_OFF</v>
+      <c r="F16" s="7" t="s">
+        <v>90</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>12</v>
@@ -5694,8 +5674,8 @@
         <v>10.9</v>
       </c>
       <c r="M16" s="7" t="str">
-        <f>[1]ELC!$B$11</f>
-        <v>NEW_WIND_OFF</v>
+        <f t="shared" ref="M16:M17" si="5">F16</f>
+        <v>ELE_NEW_WIND_OFF</v>
       </c>
       <c r="P16" s="18" t="s">
         <v>84</v>
@@ -5714,9 +5694,8 @@
       <c r="E17" s="20">
         <v>35</v>
       </c>
-      <c r="F17" s="7" t="str">
-        <f>[1]ELC!$B$11</f>
-        <v>NEW_WIND_OFF</v>
+      <c r="F17" s="7" t="s">
+        <v>90</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>12</v>
@@ -5731,8 +5710,8 @@
         <v>10.9</v>
       </c>
       <c r="M17" s="7" t="str">
-        <f>[1]ELC!$B$11</f>
-        <v>NEW_WIND_OFF</v>
+        <f t="shared" si="5"/>
+        <v>ELE_NEW_WIND_OFF</v>
       </c>
     </row>
     <row r="18" spans="2:27" ht="18.75" customHeight="1">
@@ -5746,9 +5725,8 @@
         <v>2030</v>
       </c>
       <c r="E18" s="21"/>
-      <c r="F18" s="6" t="str">
-        <f>[1]ELC!$B$12</f>
-        <v>NEW_HYDRO</v>
+      <c r="F18" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>12</v>
@@ -5761,8 +5739,8 @@
       </c>
       <c r="L18" s="21"/>
       <c r="M18" s="6" t="str">
-        <f>[1]ELC!$B$12</f>
-        <v>NEW_HYDRO</v>
+        <f>F18</f>
+        <v>ELE_NEW_HYDRO</v>
       </c>
     </row>
     <row r="19" spans="2:27" ht="18.75" customHeight="1">
@@ -5776,9 +5754,8 @@
         <v>2040</v>
       </c>
       <c r="E19" s="21"/>
-      <c r="F19" s="6" t="str">
-        <f>[1]ELC!$B$12</f>
-        <v>NEW_HYDRO</v>
+      <c r="F19" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>12</v>
@@ -5791,8 +5768,8 @@
       </c>
       <c r="L19" s="21"/>
       <c r="M19" s="6" t="str">
-        <f>[1]ELC!$B$12</f>
-        <v>NEW_HYDRO</v>
+        <f t="shared" ref="M19:M20" si="6">F19</f>
+        <v>ELE_NEW_HYDRO</v>
       </c>
     </row>
     <row r="20" spans="2:27" ht="18.75" customHeight="1">
@@ -5806,9 +5783,8 @@
         <v>2050</v>
       </c>
       <c r="E20" s="21"/>
-      <c r="F20" s="6" t="str">
-        <f>[1]ELC!$B$12</f>
-        <v>NEW_HYDRO</v>
+      <c r="F20" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>12</v>
@@ -5821,8 +5797,8 @@
       </c>
       <c r="L20" s="21"/>
       <c r="M20" s="6" t="str">
-        <f>[1]ELC!$B$12</f>
-        <v>NEW_HYDRO</v>
+        <f t="shared" si="6"/>
+        <v>ELE_NEW_HYDRO</v>
       </c>
     </row>
     <row r="21" spans="2:27" ht="18.75" customHeight="1">
@@ -5838,9 +5814,8 @@
       <c r="E21" s="20">
         <v>33</v>
       </c>
-      <c r="F21" s="7" t="str">
-        <f>[1]ELC!$B$13</f>
-        <v>NEW_PV</v>
+      <c r="F21" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>12</v>
@@ -5855,8 +5830,8 @@
         <v>13.885</v>
       </c>
       <c r="M21" s="7" t="str">
-        <f>[1]ELC!$B$13</f>
-        <v>NEW_PV</v>
+        <f>F21</f>
+        <v>ELE_NEW_PV</v>
       </c>
     </row>
     <row r="22" spans="2:27" ht="18.75" customHeight="1">
@@ -5872,9 +5847,8 @@
       <c r="E22" s="20">
         <v>65</v>
       </c>
-      <c r="F22" s="7" t="str">
-        <f>[1]ELC!$B$13</f>
-        <v>NEW_PV</v>
+      <c r="F22" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>12</v>
@@ -5889,8 +5863,8 @@
         <v>15.897</v>
       </c>
       <c r="M22" s="7" t="str">
-        <f>[1]ELC!$B$13</f>
-        <v>NEW_PV</v>
+        <f t="shared" ref="M22:M23" si="7">F22</f>
+        <v>ELE_NEW_PV</v>
       </c>
     </row>
     <row r="23" spans="2:27" ht="18.75" customHeight="1">
@@ -5906,9 +5880,8 @@
       <c r="E23" s="20">
         <v>96</v>
       </c>
-      <c r="F23" s="7" t="str">
-        <f>[1]ELC!$B$13</f>
-        <v>NEW_PV</v>
+      <c r="F23" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>12</v>
@@ -5923,8 +5896,8 @@
         <v>20</v>
       </c>
       <c r="M23" s="7" t="str">
-        <f>[1]ELC!$B$13</f>
-        <v>NEW_PV</v>
+        <f t="shared" si="7"/>
+        <v>ELE_NEW_PV</v>
       </c>
     </row>
     <row r="24" spans="2:27" ht="18.75" customHeight="1">
@@ -5940,9 +5913,8 @@
       <c r="E24" s="21">
         <v>1.1200000000000001</v>
       </c>
-      <c r="F24" s="6" t="str">
-        <f>[1]ELC!$B$14</f>
-        <v>NEW_NUC</v>
+      <c r="F24" s="6" t="s">
+        <v>93</v>
       </c>
       <c r="I24" s="5" t="s">
         <v>12</v>
@@ -5957,8 +5929,8 @@
         <v>0</v>
       </c>
       <c r="M24" s="6" t="str">
-        <f>[1]ELC!$B$14</f>
-        <v>NEW_NUC</v>
+        <f>F24</f>
+        <v>ELE_NEW_NUC</v>
       </c>
     </row>
     <row r="25" spans="2:27" ht="18.75" customHeight="1">
@@ -5974,9 +5946,8 @@
       <c r="E25" s="21">
         <v>8.6300000000000008</v>
       </c>
-      <c r="F25" s="6" t="str">
-        <f>[1]ELC!$B$14</f>
-        <v>NEW_NUC</v>
+      <c r="F25" s="6" t="s">
+        <v>93</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>12</v>
@@ -5991,8 +5962,8 @@
         <v>4.4400000000000004</v>
       </c>
       <c r="M25" s="6" t="str">
-        <f>[1]ELC!$B$14</f>
-        <v>NEW_NUC</v>
+        <f t="shared" ref="M25:M26" si="8">F25</f>
+        <v>ELE_NEW_NUC</v>
       </c>
     </row>
     <row r="26" spans="2:27" ht="18.75" customHeight="1">
@@ -6008,9 +5979,8 @@
       <c r="E26" s="21">
         <v>15</v>
       </c>
-      <c r="F26" s="6" t="str">
-        <f>[1]ELC!$B$14</f>
-        <v>NEW_NUC</v>
+      <c r="F26" s="6" t="s">
+        <v>93</v>
       </c>
       <c r="I26" s="5" t="s">
         <v>12</v>
@@ -6025,38 +5995,38 @@
         <v>6.66</v>
       </c>
       <c r="M26" s="6" t="str">
-        <f>[1]ELC!$B$14</f>
-        <v>NEW_NUC</v>
+        <f t="shared" si="8"/>
+        <v>ELE_NEW_NUC</v>
       </c>
     </row>
     <row r="27" spans="2:27" ht="18.75" customHeight="1">
-      <c r="P27" s="25" t="s">
+      <c r="P27" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="Q27" s="25"/>
-      <c r="R27" s="25"/>
-      <c r="S27" s="25"/>
-      <c r="T27" s="25"/>
-      <c r="U27" s="25"/>
-      <c r="V27" s="25"/>
+      <c r="Q27" s="33"/>
+      <c r="R27" s="33"/>
+      <c r="S27" s="33"/>
+      <c r="T27" s="33"/>
+      <c r="U27" s="33"/>
+      <c r="V27" s="33"/>
     </row>
     <row r="28" spans="2:27" ht="18.75" customHeight="1">
-      <c r="P28" s="25"/>
-      <c r="Q28" s="25"/>
-      <c r="R28" s="25"/>
-      <c r="S28" s="25"/>
-      <c r="T28" s="25"/>
-      <c r="U28" s="25"/>
-      <c r="V28" s="25"/>
+      <c r="P28" s="33"/>
+      <c r="Q28" s="33"/>
+      <c r="R28" s="33"/>
+      <c r="S28" s="33"/>
+      <c r="T28" s="33"/>
+      <c r="U28" s="33"/>
+      <c r="V28" s="33"/>
     </row>
     <row r="29" spans="2:27" ht="18.75" customHeight="1">
-      <c r="P29" s="25"/>
-      <c r="Q29" s="25"/>
-      <c r="R29" s="25"/>
-      <c r="S29" s="25"/>
-      <c r="T29" s="25"/>
-      <c r="U29" s="25"/>
-      <c r="V29" s="25"/>
+      <c r="P29" s="33"/>
+      <c r="Q29" s="33"/>
+      <c r="R29" s="33"/>
+      <c r="S29" s="33"/>
+      <c r="T29" s="33"/>
+      <c r="U29" s="33"/>
+      <c r="V29" s="33"/>
     </row>
     <row r="30" spans="2:27" ht="18.75" customHeight="1"/>
     <row r="31" spans="2:27" ht="18.75" customHeight="1">
@@ -6218,10 +6188,10 @@
       <c r="B1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="40" t="s">
         <v>18</v>
       </c>
       <c r="E1" s="11" t="s">
@@ -6236,7 +6206,7 @@
       <c r="H1" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="40" t="s">
         <v>25</v>
       </c>
     </row>
@@ -6245,21 +6215,21 @@
         <v>14</v>
       </c>
       <c r="B2" s="12"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
-      <c r="I2" s="27"/>
+      <c r="I2" s="41"/>
     </row>
     <row r="3" spans="1:9" ht="24.5" thickBot="1">
       <c r="A3" s="10"/>
       <c r="B3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
       <c r="E3" s="13" t="s">
         <v>16</v>
       </c>
@@ -6272,192 +6242,192 @@
       <c r="H3" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="28"/>
+      <c r="I3" s="42"/>
     </row>
     <row r="4" spans="1:9" ht="13" thickBot="1">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="31"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="32">
+      <c r="B5" s="34">
         <v>1050</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="32" t="s">
+      <c r="G5" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="32" t="s">
+      <c r="H5" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="32" t="s">
+      <c r="I5" s="34" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="14"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
     </row>
     <row r="7" spans="1:9" ht="32.5" thickBot="1">
       <c r="A7" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="32">
+      <c r="B8" s="34">
         <v>1500</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="F8" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="32" t="s">
+      <c r="G8" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="32" t="s">
+      <c r="H8" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="32" t="s">
+      <c r="I8" s="34" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="14"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
     </row>
     <row r="10" spans="1:9" ht="32.5" thickBot="1">
       <c r="A10" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="32">
+      <c r="B11" s="34">
         <v>1200</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="32" t="s">
+      <c r="F11" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="32" t="s">
+      <c r="G11" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="32" t="s">
+      <c r="H11" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="32" t="s">
+      <c r="I11" s="34" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="14"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
     </row>
     <row r="14" spans="1:9" ht="13" thickBot="1">
       <c r="A14" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="9" t="s">
@@ -6466,939 +6436,939 @@
       <c r="B15" s="16">
         <v>500</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="E15" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="32" t="s">
+      <c r="F15" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="G15" s="32" t="s">
+      <c r="G15" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="H15" s="32" t="s">
+      <c r="H15" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="I15" s="32" t="s">
+      <c r="I15" s="34" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="14"/>
       <c r="B16" s="12"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" thickBot="1">
       <c r="A17" s="15" t="s">
         <v>44</v>
       </c>
       <c r="B17" s="13"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="32">
+      <c r="B18" s="34">
         <v>440</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="32" t="s">
+      <c r="D18" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="32" t="s">
+      <c r="E18" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="F18" s="32" t="s">
+      <c r="F18" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="G18" s="32" t="s">
+      <c r="G18" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="H18" s="32" t="s">
+      <c r="H18" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="I18" s="32" t="s">
+      <c r="I18" s="34" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="14"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
     </row>
     <row r="20" spans="1:9" ht="16.5" thickBot="1">
       <c r="A20" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B21" s="32">
+      <c r="B21" s="34">
         <f>AVERAGE(720,1200)</f>
         <v>960</v>
       </c>
-      <c r="C21" s="32" t="s">
+      <c r="C21" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="32" t="s">
+      <c r="D21" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="E21" s="32" t="s">
+      <c r="E21" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="32" t="s">
+      <c r="F21" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="G21" s="32" t="s">
+      <c r="G21" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="H21" s="32" t="s">
+      <c r="H21" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="I21" s="32" t="s">
+      <c r="I21" s="34" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="14"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
     </row>
     <row r="23" spans="1:9" ht="16.5" thickBot="1">
       <c r="A23" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="32">
+      <c r="B24" s="34">
         <f>AVERAGE(720,1200)</f>
         <v>960</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="C24" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="32" t="s">
+      <c r="D24" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="32" t="s">
+      <c r="E24" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="F24" s="32" t="s">
+      <c r="F24" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="G24" s="32" t="s">
+      <c r="G24" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="H24" s="32" t="s">
+      <c r="H24" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="I24" s="32" t="s">
+      <c r="I24" s="34" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="14"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
     </row>
     <row r="26" spans="1:9" ht="16.5" thickBot="1">
       <c r="A26" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
     </row>
     <row r="27" spans="1:9" ht="13" thickBot="1">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="31"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="39"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="32">
+      <c r="B28" s="34">
         <v>812</v>
       </c>
-      <c r="C28" s="32" t="s">
+      <c r="C28" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="32" t="s">
+      <c r="D28" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="E28" s="32" t="s">
+      <c r="E28" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="32" t="s">
+      <c r="F28" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="G28" s="32" t="s">
+      <c r="G28" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="H28" s="32" t="s">
+      <c r="H28" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="I28" s="32" t="s">
+      <c r="I28" s="34" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="14"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
     </row>
     <row r="31" spans="1:9" ht="13" thickBot="1">
       <c r="A31" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="32">
+      <c r="B32" s="34">
         <v>896</v>
       </c>
-      <c r="C32" s="32" t="s">
+      <c r="C32" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="32" t="s">
+      <c r="D32" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="E32" s="32" t="s">
+      <c r="E32" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="F32" s="32" t="s">
+      <c r="F32" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="G32" s="32" t="s">
+      <c r="G32" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="H32" s="32" t="s">
+      <c r="H32" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="I32" s="32" t="s">
+      <c r="I32" s="34" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="14"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="33"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
     </row>
     <row r="35" spans="1:9" ht="13" thickBot="1">
       <c r="A35" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
     </row>
     <row r="36" spans="1:9" ht="16">
       <c r="A36" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B36" s="32">
+      <c r="B36" s="34">
         <v>1204</v>
       </c>
-      <c r="C36" s="32" t="s">
+      <c r="C36" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D36" s="32" t="s">
+      <c r="D36" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="E36" s="32" t="s">
+      <c r="E36" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="F36" s="32" t="s">
+      <c r="F36" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="G36" s="32" t="s">
+      <c r="G36" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="H36" s="32" t="s">
+      <c r="H36" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="I36" s="32" t="s">
+      <c r="I36" s="34" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="14"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="35"/>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="33"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
     </row>
     <row r="39" spans="1:9" ht="13" thickBot="1">
       <c r="A39" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="34"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="34"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
     </row>
     <row r="40" spans="1:9" ht="16">
       <c r="A40" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B40" s="32">
+      <c r="B40" s="34">
         <v>1204</v>
       </c>
-      <c r="C40" s="32" t="s">
+      <c r="C40" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D40" s="32" t="s">
+      <c r="D40" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="E40" s="32" t="s">
+      <c r="E40" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="F40" s="32" t="s">
+      <c r="F40" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="G40" s="32" t="s">
+      <c r="G40" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="H40" s="32" t="s">
+      <c r="H40" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="I40" s="32" t="s">
+      <c r="I40" s="34" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="14"/>
-      <c r="B41" s="33"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="33"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="35"/>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="B42" s="33"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="33"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="35"/>
     </row>
     <row r="43" spans="1:9" ht="13" thickBot="1">
       <c r="A43" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B43" s="34"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="34"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="36"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B44" s="32">
+      <c r="B44" s="34">
         <v>990</v>
       </c>
-      <c r="C44" s="32" t="s">
+      <c r="C44" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D44" s="32" t="s">
+      <c r="D44" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="E44" s="32" t="s">
+      <c r="E44" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="F44" s="32" t="s">
+      <c r="F44" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="G44" s="32" t="s">
+      <c r="G44" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="H44" s="32" t="s">
+      <c r="H44" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="I44" s="32" t="s">
+      <c r="I44" s="34" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="14"/>
-      <c r="B45" s="33"/>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="33"/>
-      <c r="I45" s="33"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="35"/>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="B46" s="33"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="33"/>
-      <c r="H46" s="33"/>
-      <c r="I46" s="33"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="35"/>
     </row>
     <row r="47" spans="1:9" ht="13" thickBot="1">
       <c r="A47" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B47" s="34"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="34"/>
-      <c r="I47" s="34"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B48" s="32">
+      <c r="B48" s="34">
         <v>975</v>
       </c>
-      <c r="C48" s="32" t="s">
+      <c r="C48" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D48" s="32" t="s">
+      <c r="D48" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="E48" s="32" t="s">
+      <c r="E48" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="F48" s="32" t="s">
+      <c r="F48" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="G48" s="32" t="s">
+      <c r="G48" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="H48" s="32" t="s">
+      <c r="H48" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="I48" s="32" t="s">
+      <c r="I48" s="34" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="14"/>
-      <c r="B49" s="33"/>
-      <c r="C49" s="33"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="33"/>
-      <c r="F49" s="33"/>
-      <c r="G49" s="33"/>
-      <c r="H49" s="33"/>
-      <c r="I49" s="33"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="35"/>
+      <c r="I49" s="35"/>
     </row>
     <row r="50" spans="1:9" ht="32.5" thickBot="1">
       <c r="A50" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="B50" s="34"/>
-      <c r="C50" s="34"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="34"/>
-      <c r="I50" s="34"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="36"/>
+      <c r="I50" s="36"/>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B51" s="32">
+      <c r="B51" s="34">
         <v>210</v>
       </c>
-      <c r="C51" s="32" t="s">
+      <c r="C51" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="32" t="s">
+      <c r="D51" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="E51" s="32" t="s">
+      <c r="E51" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="F51" s="32" t="s">
+      <c r="F51" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="G51" s="32" t="s">
+      <c r="G51" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="H51" s="32" t="s">
+      <c r="H51" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="I51" s="32" t="s">
+      <c r="I51" s="34" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="14"/>
-      <c r="B52" s="33"/>
-      <c r="C52" s="33"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="33"/>
-      <c r="H52" s="33"/>
-      <c r="I52" s="33"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="35"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="35"/>
+      <c r="I52" s="35"/>
     </row>
     <row r="53" spans="1:9" ht="32.5" thickBot="1">
       <c r="A53" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B53" s="34"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="34"/>
-      <c r="I53" s="34"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
+      <c r="I53" s="36"/>
     </row>
     <row r="54" spans="1:9" ht="16">
       <c r="A54" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B54" s="32">
+      <c r="B54" s="34">
         <v>966</v>
       </c>
-      <c r="C54" s="32" t="s">
+      <c r="C54" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D54" s="32" t="s">
+      <c r="D54" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="E54" s="32" t="s">
+      <c r="E54" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="F54" s="32" t="s">
+      <c r="F54" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="G54" s="32" t="s">
+      <c r="G54" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="H54" s="32" t="s">
+      <c r="H54" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="I54" s="32" t="s">
+      <c r="I54" s="34" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="14"/>
-      <c r="B55" s="33"/>
-      <c r="C55" s="33"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="33"/>
-      <c r="F55" s="33"/>
-      <c r="G55" s="33"/>
-      <c r="H55" s="33"/>
-      <c r="I55" s="33"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="35"/>
+      <c r="D55" s="35"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="35"/>
+      <c r="I55" s="35"/>
     </row>
     <row r="56" spans="1:9" ht="16">
       <c r="A56" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="B56" s="33"/>
-      <c r="C56" s="33"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="33"/>
-      <c r="G56" s="33"/>
-      <c r="H56" s="33"/>
-      <c r="I56" s="33"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="35"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="35"/>
+      <c r="I56" s="35"/>
     </row>
     <row r="57" spans="1:9" ht="13" thickBot="1">
       <c r="A57" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B57" s="34"/>
-      <c r="C57" s="34"/>
-      <c r="D57" s="34"/>
-      <c r="E57" s="34"/>
-      <c r="F57" s="34"/>
-      <c r="G57" s="34"/>
-      <c r="H57" s="34"/>
-      <c r="I57" s="34"/>
+      <c r="B57" s="36"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="36"/>
+      <c r="H57" s="36"/>
+      <c r="I57" s="36"/>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B58" s="32">
+      <c r="B58" s="34">
         <v>1560</v>
       </c>
-      <c r="C58" s="32" t="s">
+      <c r="C58" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D58" s="32" t="s">
+      <c r="D58" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="E58" s="32" t="s">
+      <c r="E58" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="F58" s="32" t="s">
+      <c r="F58" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="G58" s="32" t="s">
+      <c r="G58" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="H58" s="32" t="s">
+      <c r="H58" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="I58" s="32" t="s">
+      <c r="I58" s="34" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="14"/>
-      <c r="B59" s="33"/>
-      <c r="C59" s="33"/>
-      <c r="D59" s="33"/>
-      <c r="E59" s="33"/>
-      <c r="F59" s="33"/>
-      <c r="G59" s="33"/>
-      <c r="H59" s="33"/>
-      <c r="I59" s="33"/>
+      <c r="B59" s="35"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="35"/>
+      <c r="E59" s="35"/>
+      <c r="F59" s="35"/>
+      <c r="G59" s="35"/>
+      <c r="H59" s="35"/>
+      <c r="I59" s="35"/>
     </row>
     <row r="60" spans="1:9" ht="16.5" thickBot="1">
       <c r="A60" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B60" s="34"/>
-      <c r="C60" s="34"/>
-      <c r="D60" s="34"/>
-      <c r="E60" s="34"/>
-      <c r="F60" s="34"/>
-      <c r="G60" s="34"/>
-      <c r="H60" s="34"/>
-      <c r="I60" s="34"/>
+      <c r="B60" s="36"/>
+      <c r="C60" s="36"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="36"/>
+      <c r="F60" s="36"/>
+      <c r="G60" s="36"/>
+      <c r="H60" s="36"/>
+      <c r="I60" s="36"/>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B61" s="32">
+      <c r="B61" s="34">
         <v>900</v>
       </c>
-      <c r="C61" s="32" t="s">
+      <c r="C61" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D61" s="32" t="s">
+      <c r="D61" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="E61" s="32" t="s">
+      <c r="E61" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="F61" s="32" t="s">
+      <c r="F61" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="G61" s="32" t="s">
+      <c r="G61" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="H61" s="32" t="s">
+      <c r="H61" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="I61" s="32" t="s">
+      <c r="I61" s="34" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="14"/>
-      <c r="B62" s="33"/>
-      <c r="C62" s="33"/>
-      <c r="D62" s="33"/>
-      <c r="E62" s="33"/>
-      <c r="F62" s="33"/>
-      <c r="G62" s="33"/>
-      <c r="H62" s="33"/>
-      <c r="I62" s="33"/>
+      <c r="B62" s="35"/>
+      <c r="C62" s="35"/>
+      <c r="D62" s="35"/>
+      <c r="E62" s="35"/>
+      <c r="F62" s="35"/>
+      <c r="G62" s="35"/>
+      <c r="H62" s="35"/>
+      <c r="I62" s="35"/>
     </row>
     <row r="63" spans="1:9" ht="32.5" thickBot="1">
       <c r="A63" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="B63" s="34"/>
-      <c r="C63" s="34"/>
-      <c r="D63" s="34"/>
-      <c r="E63" s="34"/>
-      <c r="F63" s="34"/>
-      <c r="G63" s="34"/>
-      <c r="H63" s="34"/>
-      <c r="I63" s="34"/>
+      <c r="B63" s="36"/>
+      <c r="C63" s="36"/>
+      <c r="D63" s="36"/>
+      <c r="E63" s="36"/>
+      <c r="F63" s="36"/>
+      <c r="G63" s="36"/>
+      <c r="H63" s="36"/>
+      <c r="I63" s="36"/>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B64" s="32">
+      <c r="B64" s="34">
         <v>1185</v>
       </c>
-      <c r="C64" s="32" t="s">
+      <c r="C64" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D64" s="32" t="s">
+      <c r="D64" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="E64" s="32" t="s">
+      <c r="E64" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="F64" s="32" t="s">
+      <c r="F64" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="G64" s="32" t="s">
+      <c r="G64" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="H64" s="32" t="s">
+      <c r="H64" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="I64" s="32" t="s">
+      <c r="I64" s="34" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="14"/>
-      <c r="B65" s="33"/>
-      <c r="C65" s="33"/>
-      <c r="D65" s="33"/>
-      <c r="E65" s="33"/>
-      <c r="F65" s="33"/>
-      <c r="G65" s="33"/>
-      <c r="H65" s="33"/>
-      <c r="I65" s="33"/>
+      <c r="B65" s="35"/>
+      <c r="C65" s="35"/>
+      <c r="D65" s="35"/>
+      <c r="E65" s="35"/>
+      <c r="F65" s="35"/>
+      <c r="G65" s="35"/>
+      <c r="H65" s="35"/>
+      <c r="I65" s="35"/>
     </row>
     <row r="66" spans="1:9" ht="32.5" thickBot="1">
       <c r="A66" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="B66" s="34"/>
-      <c r="C66" s="34"/>
-      <c r="D66" s="34"/>
-      <c r="E66" s="34"/>
-      <c r="F66" s="34"/>
-      <c r="G66" s="34"/>
-      <c r="H66" s="34"/>
-      <c r="I66" s="34"/>
+      <c r="B66" s="36"/>
+      <c r="C66" s="36"/>
+      <c r="D66" s="36"/>
+      <c r="E66" s="36"/>
+      <c r="F66" s="36"/>
+      <c r="G66" s="36"/>
+      <c r="H66" s="36"/>
+      <c r="I66" s="36"/>
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B67" s="32">
+      <c r="B67" s="34">
         <v>555</v>
       </c>
-      <c r="C67" s="32" t="s">
+      <c r="C67" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D67" s="32" t="s">
+      <c r="D67" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="E67" s="32" t="s">
+      <c r="E67" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="F67" s="32" t="s">
+      <c r="F67" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="G67" s="32" t="s">
+      <c r="G67" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="H67" s="32" t="s">
+      <c r="H67" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="I67" s="32" t="s">
+      <c r="I67" s="34" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="14"/>
-      <c r="B68" s="33"/>
-      <c r="C68" s="33"/>
-      <c r="D68" s="33"/>
-      <c r="E68" s="33"/>
-      <c r="F68" s="33"/>
-      <c r="G68" s="33"/>
-      <c r="H68" s="33"/>
-      <c r="I68" s="33"/>
+      <c r="B68" s="35"/>
+      <c r="C68" s="35"/>
+      <c r="D68" s="35"/>
+      <c r="E68" s="35"/>
+      <c r="F68" s="35"/>
+      <c r="G68" s="35"/>
+      <c r="H68" s="35"/>
+      <c r="I68" s="35"/>
     </row>
     <row r="69" spans="1:9" ht="32.5" thickBot="1">
       <c r="A69" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B69" s="34"/>
-      <c r="C69" s="34"/>
-      <c r="D69" s="34"/>
-      <c r="E69" s="34"/>
-      <c r="F69" s="34"/>
-      <c r="G69" s="34"/>
-      <c r="H69" s="34"/>
-      <c r="I69" s="34"/>
+      <c r="B69" s="36"/>
+      <c r="C69" s="36"/>
+      <c r="D69" s="36"/>
+      <c r="E69" s="36"/>
+      <c r="F69" s="36"/>
+      <c r="G69" s="36"/>
+      <c r="H69" s="36"/>
+      <c r="I69" s="36"/>
     </row>
     <row r="71" spans="1:9">
       <c r="B71">
@@ -7408,134 +7378,16 @@
     </row>
   </sheetData>
   <mergeCells count="156">
-    <mergeCell ref="H64:H66"/>
-    <mergeCell ref="I64:I66"/>
-    <mergeCell ref="B67:B69"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="E67:E69"/>
-    <mergeCell ref="F67:F69"/>
-    <mergeCell ref="G67:G69"/>
-    <mergeCell ref="H67:H69"/>
-    <mergeCell ref="I67:I69"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="C64:C66"/>
-    <mergeCell ref="D64:D66"/>
-    <mergeCell ref="E64:E66"/>
-    <mergeCell ref="F64:F66"/>
-    <mergeCell ref="G64:G66"/>
-    <mergeCell ref="H58:H60"/>
-    <mergeCell ref="I58:I60"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="E61:E63"/>
-    <mergeCell ref="F61:F63"/>
-    <mergeCell ref="G61:G63"/>
-    <mergeCell ref="H61:H63"/>
-    <mergeCell ref="I61:I63"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="D58:D60"/>
-    <mergeCell ref="E58:E60"/>
-    <mergeCell ref="F58:F60"/>
-    <mergeCell ref="G58:G60"/>
-    <mergeCell ref="H51:H53"/>
-    <mergeCell ref="I51:I53"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="D54:D57"/>
-    <mergeCell ref="E54:E57"/>
-    <mergeCell ref="F54:F57"/>
-    <mergeCell ref="G54:G57"/>
-    <mergeCell ref="H54:H57"/>
-    <mergeCell ref="I54:I57"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="H44:H47"/>
-    <mergeCell ref="I44:I47"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="D48:D50"/>
-    <mergeCell ref="E48:E50"/>
-    <mergeCell ref="F48:F50"/>
-    <mergeCell ref="G48:G50"/>
-    <mergeCell ref="H48:H50"/>
-    <mergeCell ref="I48:I50"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="C44:C47"/>
-    <mergeCell ref="D44:D47"/>
-    <mergeCell ref="E44:E47"/>
-    <mergeCell ref="F44:F47"/>
-    <mergeCell ref="G44:G47"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="C40:C43"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="E40:E43"/>
-    <mergeCell ref="F40:F43"/>
-    <mergeCell ref="G40:G43"/>
-    <mergeCell ref="H40:H43"/>
-    <mergeCell ref="I40:I43"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="D36:D39"/>
-    <mergeCell ref="E36:E39"/>
-    <mergeCell ref="F36:F39"/>
-    <mergeCell ref="G36:G39"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="E32:E35"/>
-    <mergeCell ref="F32:F35"/>
-    <mergeCell ref="G32:G35"/>
-    <mergeCell ref="H32:H35"/>
-    <mergeCell ref="I32:I35"/>
-    <mergeCell ref="H36:H39"/>
-    <mergeCell ref="I36:I39"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="A27:I27"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="F28:F31"/>
-    <mergeCell ref="G28:G31"/>
-    <mergeCell ref="H28:H31"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="D24:D26"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="I28:I31"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="E21:E23"/>
-    <mergeCell ref="F21:F23"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="G18:G20"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="H18:H20"/>
-    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="I1:I3"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="C11:C14"/>
     <mergeCell ref="D11:D14"/>
@@ -7554,16 +7406,134 @@
     <mergeCell ref="I8:I10"/>
     <mergeCell ref="H11:H14"/>
     <mergeCell ref="I11:I14"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="I1:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="H18:H20"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="F18:F20"/>
+    <mergeCell ref="G18:G20"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="G28:G31"/>
+    <mergeCell ref="H28:H31"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="F24:F26"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="I28:I31"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="D32:D35"/>
+    <mergeCell ref="E32:E35"/>
+    <mergeCell ref="F32:F35"/>
+    <mergeCell ref="G32:G35"/>
+    <mergeCell ref="H32:H35"/>
+    <mergeCell ref="I32:I35"/>
+    <mergeCell ref="H36:H39"/>
+    <mergeCell ref="I36:I39"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="C40:C43"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="E40:E43"/>
+    <mergeCell ref="F40:F43"/>
+    <mergeCell ref="G40:G43"/>
+    <mergeCell ref="H40:H43"/>
+    <mergeCell ref="I40:I43"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="E36:E39"/>
+    <mergeCell ref="F36:F39"/>
+    <mergeCell ref="G36:G39"/>
+    <mergeCell ref="H44:H47"/>
+    <mergeCell ref="I44:I47"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="D48:D50"/>
+    <mergeCell ref="E48:E50"/>
+    <mergeCell ref="F48:F50"/>
+    <mergeCell ref="G48:G50"/>
+    <mergeCell ref="H48:H50"/>
+    <mergeCell ref="I48:I50"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="D44:D47"/>
+    <mergeCell ref="E44:E47"/>
+    <mergeCell ref="F44:F47"/>
+    <mergeCell ref="G44:G47"/>
+    <mergeCell ref="H51:H53"/>
+    <mergeCell ref="I51:I53"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="D54:D57"/>
+    <mergeCell ref="E54:E57"/>
+    <mergeCell ref="F54:F57"/>
+    <mergeCell ref="G54:G57"/>
+    <mergeCell ref="H54:H57"/>
+    <mergeCell ref="I54:I57"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="H58:H60"/>
+    <mergeCell ref="I58:I60"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="E61:E63"/>
+    <mergeCell ref="F61:F63"/>
+    <mergeCell ref="G61:G63"/>
+    <mergeCell ref="H61:H63"/>
+    <mergeCell ref="I61:I63"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="D58:D60"/>
+    <mergeCell ref="E58:E60"/>
+    <mergeCell ref="F58:F60"/>
+    <mergeCell ref="G58:G60"/>
+    <mergeCell ref="H64:H66"/>
+    <mergeCell ref="I64:I66"/>
+    <mergeCell ref="B67:B69"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="E67:E69"/>
+    <mergeCell ref="F67:F69"/>
+    <mergeCell ref="G67:G69"/>
+    <mergeCell ref="H67:H69"/>
+    <mergeCell ref="I67:I69"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="D64:D66"/>
+    <mergeCell ref="E64:E66"/>
+    <mergeCell ref="F64:F66"/>
+    <mergeCell ref="G64:G66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7579,12 +7549,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100E800C01780957C4993EAD0B0EDC5E8FF" ma:contentTypeVersion="4" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="56d16bfd38a93d3246b87ec2f908dfef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="95645557-b925-4e14-b9c3-bb0dccab904e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3e7776de10091f04de0bec4c5ba2ee03" ns2:_="">
     <xsd:import namespace="95645557-b925-4e14-b9c3-bb0dccab904e"/>
@@ -7728,6 +7692,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A919C01F-CA71-4C8D-96CD-5BFCC0849AAF}">
   <ds:schemaRefs>
@@ -7737,15 +7707,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D1DF3B-E7FC-4762-97D3-E9AC14DDD5AF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6B71AD7-E9A8-43CF-AE38-95D660764143}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7761,4 +7722,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D1DF3B-E7FC-4762-97D3-E9AC14DDD5AF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/SuppXLS/Scen_NCAP_PP_LO_UP_RANGE_N.xlsx
+++ b/SuppXLS/Scen_NCAP_PP_LO_UP_RANGE_N.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jemio\Downloads\do_gita\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F40D4E60-980F-471C-9F33-31A906DD67E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B73FBBA9-0166-4768-B733-DD1ED8C26C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="242" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4928,8 +4928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D6D9493-8910-4400-8868-45B910E390AB}">
   <dimension ref="B3:AA66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="64" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="64" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5"/>
@@ -5724,7 +5724,9 @@
       <c r="D18" s="5">
         <v>2030</v>
       </c>
-      <c r="E18" s="21"/>
+      <c r="E18" s="21">
+        <v>1</v>
+      </c>
       <c r="F18" s="6" t="s">
         <v>91</v>
       </c>
@@ -5753,7 +5755,9 @@
       <c r="D19" s="5">
         <v>2040</v>
       </c>
-      <c r="E19" s="21"/>
+      <c r="E19" s="21">
+        <v>1</v>
+      </c>
       <c r="F19" s="6" t="s">
         <v>91</v>
       </c>
@@ -5782,7 +5786,9 @@
       <c r="D20" s="5">
         <v>2050</v>
       </c>
-      <c r="E20" s="21"/>
+      <c r="E20" s="21">
+        <v>1</v>
+      </c>
       <c r="F20" s="6" t="s">
         <v>91</v>
       </c>
